--- a/mallar/import/sm_nm 2023/extraktion_01-SMNM2023 - med NM.xlsx
+++ b/mallar/import/sm_nm 2023/extraktion_01-SMNM2023 - med NM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\sm_nm 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57500B88-23F2-4DF9-BD1D-60FEF129D5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE99F41-2BEA-48EF-BE71-2EB74F8A8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="483" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" tabRatio="483" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="362">
   <si>
     <t>Linda Jenvall</t>
   </si>
@@ -1066,9 +1066,6 @@
     <t>Olga Fagerström</t>
   </si>
   <si>
-    <t>Startordning på Halving?</t>
-  </si>
-  <si>
     <t>Danmark</t>
   </si>
   <si>
@@ -1103,6 +1100,30 @@
   </si>
   <si>
     <t>Team Cassiopeia</t>
+  </si>
+  <si>
+    <t>Genevieve Dowen</t>
+  </si>
+  <si>
+    <t>Arnika Palomurto</t>
+  </si>
+  <si>
+    <t>Startordning på Kaliostro?</t>
+  </si>
+  <si>
+    <t>Neea Kostiainen, Kerttu Saarimaa, Matilda Sjöström, Vilma Granberg</t>
+  </si>
+  <si>
+    <t>Kerttu Saarimaa</t>
+  </si>
+  <si>
+    <t>Matilda Sjöström</t>
+  </si>
+  <si>
+    <t>Vilma Granberg</t>
+  </si>
+  <si>
+    <t>Linnea, Amalia Glimmerhav, Edla Danielsson, Anna-Liisa Anson</t>
   </si>
 </sst>
 </file>
@@ -1493,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1689,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L3">
         <v>115495</v>
@@ -2380,13 +2401,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>629742</v>
+        <v>629745</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D17">
         <v>95073</v>
@@ -2401,42 +2422,39 @@
         <v>116</v>
       </c>
       <c r="H17">
-        <v>609</v>
+        <v>1330</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="L17">
-        <v>60750</v>
+        <v>119967</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>629745</v>
+        <v>629742</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D18">
-        <v>69289</v>
+        <v>95073</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F18">
-        <v>301468</v>
+        <v>279357</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18">
         <v>609</v>
@@ -2444,11 +2462,14 @@
       <c r="I18" t="s">
         <v>29</v>
       </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
       <c r="L18">
-        <v>131893</v>
+        <v>60750</v>
       </c>
       <c r="M18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
@@ -2462,28 +2483,28 @@
         <v>153</v>
       </c>
       <c r="D19">
-        <v>40552</v>
+        <v>69289</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="F19">
-        <v>293760</v>
+        <v>301468</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="H19">
-        <v>223</v>
+        <v>609</v>
       </c>
       <c r="I19" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="L19">
-        <v>69830</v>
+        <v>131893</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -2509,16 +2530,16 @@
         <v>14</v>
       </c>
       <c r="H20">
-        <v>869</v>
+        <v>223</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>120827</v>
+        <v>69830</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -2532,31 +2553,28 @@
         <v>153</v>
       </c>
       <c r="D21">
-        <v>39883</v>
+        <v>40552</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>310234</v>
+        <v>293760</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>1198</v>
+        <v>869</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="L21">
-        <v>134138</v>
+        <v>120827</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -2570,31 +2588,31 @@
         <v>153</v>
       </c>
       <c r="D22">
-        <v>40552</v>
+        <v>39883</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F22">
-        <v>293760</v>
+        <v>310234</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>223</v>
+        <v>1198</v>
       </c>
       <c r="I22" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L22">
-        <v>134608</v>
+        <v>134138</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -2608,28 +2626,31 @@
         <v>153</v>
       </c>
       <c r="D23">
-        <v>39883</v>
+        <v>40552</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>310234</v>
+        <v>293760</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>1198</v>
+        <v>223</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
       </c>
       <c r="L23">
-        <v>107961</v>
+        <v>134608</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -2643,31 +2664,28 @@
         <v>153</v>
       </c>
       <c r="D24">
-        <v>65038</v>
+        <v>39883</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>312598</v>
+        <v>310234</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H24">
-        <v>223</v>
+        <v>1198</v>
       </c>
       <c r="I24" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="L24">
-        <v>101580</v>
+        <v>107961</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -2681,16 +2699,16 @@
         <v>153</v>
       </c>
       <c r="D25">
-        <v>36847</v>
+        <v>65038</v>
       </c>
       <c r="E25" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F25">
-        <v>280330</v>
+        <v>312598</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H25">
         <v>223</v>
@@ -2699,13 +2717,13 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L25">
-        <v>101407</v>
+        <v>101580</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -2719,28 +2737,31 @@
         <v>153</v>
       </c>
       <c r="D26">
-        <v>39883</v>
+        <v>36847</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>310234</v>
+        <v>280330</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>1198</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
       </c>
       <c r="L26">
-        <v>108087</v>
+        <v>101407</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -2754,31 +2775,28 @@
         <v>153</v>
       </c>
       <c r="D27">
-        <v>36847</v>
+        <v>39883</v>
       </c>
       <c r="E27" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F27">
-        <v>264133</v>
+        <v>310234</v>
       </c>
       <c r="G27" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H27">
-        <v>223</v>
+        <v>1198</v>
       </c>
       <c r="I27" t="s">
-        <v>2</v>
-      </c>
-      <c r="J27" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="L27">
-        <v>109403</v>
+        <v>108087</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -2810,13 +2828,13 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L28">
-        <v>150025</v>
+        <v>109403</v>
       </c>
       <c r="M28" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
@@ -2830,28 +2848,31 @@
         <v>153</v>
       </c>
       <c r="D29">
-        <v>95073</v>
+        <v>36847</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>279357</v>
+        <v>264133</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>1330</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
       </c>
       <c r="L29">
-        <v>119967</v>
+        <v>150025</v>
       </c>
       <c r="M29" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
@@ -4122,170 +4143,170 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>629741</v>
-      </c>
-      <c r="B64">
-        <v>24</v>
-      </c>
-      <c r="C64" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64">
-        <v>188520</v>
-      </c>
-      <c r="E64" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64">
-        <v>313507</v>
-      </c>
-      <c r="G64" t="s">
-        <v>115</v>
-      </c>
-      <c r="H64">
-        <v>202</v>
-      </c>
-      <c r="I64" t="s">
-        <v>261</v>
-      </c>
-      <c r="J64" t="s">
-        <v>321</v>
-      </c>
-      <c r="L64">
-        <v>1007</v>
-      </c>
-      <c r="M64" t="s">
-        <v>278</v>
+    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>629756</v>
+      </c>
+      <c r="B64" s="7">
+        <v>15</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="7">
+        <v>101</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F64" s="7">
+        <v>2</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H64" s="7">
+        <v>210</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L64" s="7">
+        <v>1053</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>629747</v>
+        <v>629741</v>
       </c>
       <c r="B65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D65">
-        <v>104</v>
+        <v>188520</v>
       </c>
       <c r="E65" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>313507</v>
       </c>
       <c r="G65" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="H65">
-        <v>201</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>260</v>
+        <v>202</v>
+      </c>
+      <c r="I65" t="s">
+        <v>261</v>
+      </c>
+      <c r="J65" t="s">
+        <v>321</v>
       </c>
       <c r="L65">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>629756</v>
+        <v>629747</v>
       </c>
       <c r="B66">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D66">
-        <v>188520</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H66">
-        <v>210</v>
-      </c>
-      <c r="I66" t="s">
-        <v>322</v>
+        <v>201</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="L66">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>629738</v>
+        <v>629756</v>
       </c>
       <c r="B67">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="D67">
-        <v>105</v>
+        <v>188520</v>
       </c>
       <c r="E67" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H67">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I67" t="s">
-        <v>258</v>
+        <v>322</v>
       </c>
       <c r="L67">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>629744</v>
+        <v>629738</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D68">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -4293,14 +4314,11 @@
       <c r="I68" t="s">
         <v>258</v>
       </c>
-      <c r="J68" t="s">
-        <v>324</v>
-      </c>
       <c r="L68">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
@@ -4331,22 +4349,25 @@
       <c r="I69" t="s">
         <v>258</v>
       </c>
+      <c r="J69" t="s">
+        <v>324</v>
+      </c>
       <c r="L69">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D70">
         <v>106</v>
@@ -4367,48 +4388,45 @@
         <v>258</v>
       </c>
       <c r="L70">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B71">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D71">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H71">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
-      </c>
-      <c r="J71" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="L71">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M71" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
@@ -4439,22 +4457,25 @@
       <c r="I72" t="s">
         <v>262</v>
       </c>
+      <c r="J72" t="s">
+        <v>325</v>
+      </c>
       <c r="L72">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M72" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>629741</v>
+        <v>629744</v>
       </c>
       <c r="B73">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D73">
         <v>107</v>
@@ -4463,10 +4484,10 @@
         <v>254</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H73">
         <v>203</v>
@@ -4474,60 +4495,60 @@
       <c r="I73" t="s">
         <v>262</v>
       </c>
-      <c r="J73" t="s">
-        <v>326</v>
-      </c>
       <c r="L73">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M73" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>629744</v>
-      </c>
-      <c r="B74">
-        <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="8">
+        <v>629754</v>
+      </c>
+      <c r="B74" s="8">
+        <v>13</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D74" s="7">
         <v>107</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F74">
-        <v>10</v>
-      </c>
-      <c r="G74" t="s">
-        <v>236</v>
-      </c>
-      <c r="H74">
+      <c r="F74" s="7">
+        <v>9</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" s="7">
         <v>203</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L74">
-        <v>1017</v>
-      </c>
-      <c r="M74" t="s">
-        <v>288</v>
+      <c r="J74" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L74" s="7">
+        <v>1054</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>629747</v>
+        <v>629741</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D75">
         <v>107</v>
@@ -4548,24 +4569,24 @@
         <v>262</v>
       </c>
       <c r="J75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L75">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M75" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D76">
         <v>107</v>
@@ -4586,21 +4607,21 @@
         <v>262</v>
       </c>
       <c r="L76">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M76" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>629738</v>
+        <v>629747</v>
       </c>
       <c r="B77">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D77">
         <v>107</v>
@@ -4609,36 +4630,36 @@
         <v>254</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H77">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L77">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B78">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D78">
         <v>107</v>
@@ -4647,33 +4668,33 @@
         <v>254</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H78">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L78">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M78" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>629744</v>
+        <v>629738</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D79">
         <v>107</v>
@@ -4694,13 +4715,13 @@
         <v>264</v>
       </c>
       <c r="J79" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L79">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
@@ -4732,48 +4753,48 @@
         <v>264</v>
       </c>
       <c r="L80">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M80" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B81">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D81">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H81">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J81" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L81">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.45">
@@ -4787,39 +4808,39 @@
         <v>151</v>
       </c>
       <c r="D82">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H82">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L82">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M82" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>629758</v>
+        <v>629747</v>
       </c>
       <c r="B83">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D83">
         <v>109</v>
@@ -4839,22 +4860,25 @@
       <c r="I83" t="s">
         <v>265</v>
       </c>
+      <c r="J83" t="s">
+        <v>330</v>
+      </c>
       <c r="L83">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M83" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D84">
         <v>109</v>
@@ -4875,94 +4899,91 @@
         <v>265</v>
       </c>
       <c r="L84">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="M84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>629747</v>
+        <v>629758</v>
       </c>
       <c r="B85">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D85">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F85">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H85">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I85" t="s">
-        <v>266</v>
-      </c>
-      <c r="J85" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
       <c r="L85">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M85" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>629744</v>
+        <v>629747</v>
       </c>
       <c r="B86">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D86">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F86">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H86">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L86">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>629756</v>
+        <v>629747</v>
       </c>
       <c r="B87">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D87">
         <v>110</v>
@@ -4982,22 +5003,25 @@
       <c r="I87" t="s">
         <v>266</v>
       </c>
+      <c r="J87" t="s">
+        <v>331</v>
+      </c>
       <c r="L87">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M87" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>630356</v>
+        <v>629744</v>
       </c>
       <c r="B88">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D88">
         <v>110</v>
@@ -5017,107 +5041,104 @@
       <c r="I88" t="s">
         <v>266</v>
       </c>
-      <c r="J88" t="s">
-        <v>302</v>
-      </c>
-      <c r="K88" t="s">
-        <v>332</v>
-      </c>
       <c r="L88">
         <v>1029</v>
       </c>
       <c r="M88" t="s">
         <v>300</v>
       </c>
-      <c r="N88">
-        <v>1028</v>
-      </c>
-      <c r="O88" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>629744</v>
+        <v>629756</v>
       </c>
       <c r="B89">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D89">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F89">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H89">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I89" t="s">
-        <v>262</v>
-      </c>
-      <c r="J89" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="L89">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M89" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>629744</v>
+        <v>630356</v>
       </c>
       <c r="B90">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F90">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H90">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I90" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+      <c r="J90" t="s">
+        <v>302</v>
+      </c>
+      <c r="K90" t="s">
+        <v>332</v>
       </c>
       <c r="L90">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="M90" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="N90">
+        <v>1028</v>
+      </c>
+      <c r="O90" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D91">
         <v>100</v>
@@ -5137,49 +5158,49 @@
       <c r="I91" t="s">
         <v>262</v>
       </c>
+      <c r="J91" t="s">
+        <v>333</v>
+      </c>
       <c r="L91">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="M91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B92">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D92">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H92">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I92" t="s">
-        <v>267</v>
-      </c>
-      <c r="J92" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="L92">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="M92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.45">
@@ -5193,148 +5214,112 @@
         <v>155</v>
       </c>
       <c r="D93">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F93">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H93">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I93" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L93">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="M93" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>629732</v>
+        <v>629747</v>
       </c>
       <c r="B94">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D94">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H94">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J94" t="s">
-        <v>335</v>
-      </c>
-      <c r="K94" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="L94">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="M94" t="s">
-        <v>336</v>
-      </c>
-      <c r="N94">
-        <v>1039</v>
-      </c>
-      <c r="O94" t="s">
-        <v>310</v>
-      </c>
-      <c r="P94">
-        <v>1050</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>337</v>
-      </c>
-      <c r="R94">
-        <v>1040</v>
-      </c>
-      <c r="S94" t="s">
-        <v>311</v>
-      </c>
-      <c r="T94">
-        <v>1018</v>
-      </c>
-      <c r="U94" t="s">
-        <v>289</v>
-      </c>
-      <c r="V94">
-        <v>1038</v>
-      </c>
-      <c r="W94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>629738</v>
+        <v>629747</v>
       </c>
       <c r="B95">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D95">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F95">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H95">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I95" t="s">
-        <v>268</v>
-      </c>
-      <c r="J95" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="L95">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>629744</v>
+        <v>629732</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D96">
         <v>102</v>
@@ -5343,10 +5328,10 @@
         <v>249</v>
       </c>
       <c r="F96">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H96">
         <v>208</v>
@@ -5354,22 +5339,58 @@
       <c r="I96" t="s">
         <v>268</v>
       </c>
+      <c r="J96" t="s">
+        <v>335</v>
+      </c>
+      <c r="K96" t="s">
+        <v>308</v>
+      </c>
       <c r="L96">
+        <v>1049</v>
+      </c>
+      <c r="M96" t="s">
+        <v>336</v>
+      </c>
+      <c r="N96">
         <v>1039</v>
       </c>
-      <c r="M96" t="s">
+      <c r="O96" t="s">
         <v>310</v>
+      </c>
+      <c r="P96">
+        <v>1050</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>337</v>
+      </c>
+      <c r="R96">
+        <v>1040</v>
+      </c>
+      <c r="S96" t="s">
+        <v>311</v>
+      </c>
+      <c r="T96">
+        <v>1018</v>
+      </c>
+      <c r="U96" t="s">
+        <v>289</v>
+      </c>
+      <c r="V96">
+        <v>1038</v>
+      </c>
+      <c r="W96" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>629747</v>
+        <v>629738</v>
       </c>
       <c r="B97">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>102</v>
@@ -5378,10 +5399,10 @@
         <v>249</v>
       </c>
       <c r="F97">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H97">
         <v>208</v>
@@ -5389,22 +5410,25 @@
       <c r="I97" t="s">
         <v>268</v>
       </c>
+      <c r="J97" t="s">
+        <v>338</v>
+      </c>
       <c r="L97">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>629747</v>
+        <v>629744</v>
       </c>
       <c r="B98">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D98">
         <v>102</v>
@@ -5413,10 +5437,10 @@
         <v>249</v>
       </c>
       <c r="F98">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H98">
         <v>208</v>
@@ -5424,14 +5448,11 @@
       <c r="I98" t="s">
         <v>268</v>
       </c>
-      <c r="J98" t="s">
-        <v>339</v>
-      </c>
       <c r="L98">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.45">
@@ -5451,10 +5472,10 @@
         <v>249</v>
       </c>
       <c r="F99">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H99">
         <v>208</v>
@@ -5462,152 +5483,119 @@
       <c r="I99" t="s">
         <v>268</v>
       </c>
+      <c r="J99" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="L99">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M99" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>629747</v>
-      </c>
-      <c r="B100">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D100">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="7">
+        <v>629759</v>
+      </c>
+      <c r="B100" s="7">
+        <v>18</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D100" s="7">
         <v>102</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F100">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>245</v>
-      </c>
-      <c r="H100">
+      <c r="F100" s="7">
+        <v>18</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H100" s="7">
         <v>208</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L100">
-        <v>1043</v>
-      </c>
-      <c r="M100" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>629747</v>
-      </c>
-      <c r="B101">
-        <v>26</v>
-      </c>
-      <c r="C101" t="s">
-        <v>155</v>
-      </c>
-      <c r="D101">
+      <c r="L100" s="7">
+        <v>1055</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="7">
+        <v>629759</v>
+      </c>
+      <c r="B101" s="7">
+        <v>18</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D101" s="7">
         <v>102</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F101">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>245</v>
-      </c>
-      <c r="H101">
+      <c r="F101" s="7">
+        <v>18</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H101" s="7">
         <v>208</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L101">
-        <v>1044</v>
-      </c>
-      <c r="M101" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="L101" s="7">
+        <v>1056</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="7">
-        <v>629735</v>
+        <v>629759</v>
       </c>
       <c r="B102" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D102">
+        <v>352</v>
+      </c>
+      <c r="D102" s="7">
         <v>102</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F102">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>246</v>
-      </c>
-      <c r="H102">
+      <c r="F102" s="7">
+        <v>18</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H102" s="7">
         <v>208</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="J102" t="s">
-        <v>340</v>
-      </c>
-      <c r="K102" t="s">
-        <v>316</v>
-      </c>
-      <c r="L102">
-        <v>1041</v>
-      </c>
-      <c r="M102" t="s">
-        <v>312</v>
-      </c>
-      <c r="N102">
-        <v>1042</v>
-      </c>
-      <c r="O102" t="s">
-        <v>313</v>
-      </c>
-      <c r="P102">
-        <v>1051</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>315</v>
-      </c>
-      <c r="R102">
-        <v>1052</v>
-      </c>
-      <c r="S102" t="s">
-        <v>341</v>
-      </c>
-      <c r="T102">
-        <v>1043</v>
-      </c>
-      <c r="U102" t="s">
-        <v>314</v>
-      </c>
-      <c r="V102">
-        <v>1046</v>
-      </c>
-      <c r="W102" t="s">
-        <v>317</v>
+      <c r="L102" s="7">
+        <v>1057</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.45">
@@ -5627,10 +5615,10 @@
         <v>249</v>
       </c>
       <c r="F103">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H103">
         <v>208</v>
@@ -5638,196 +5626,445 @@
       <c r="I103" t="s">
         <v>268</v>
       </c>
+      <c r="J103" t="s">
+        <v>339</v>
+      </c>
       <c r="L103">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="M103" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>629758</v>
+        <v>629747</v>
       </c>
       <c r="B104">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D104">
-        <v>95073</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="F104">
-        <v>279357</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="H104">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I104" t="s">
-        <v>269</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="L104">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="M104" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A105">
+        <v>629747</v>
+      </c>
+      <c r="B105">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
+      </c>
+      <c r="D105">
+        <v>102</v>
+      </c>
+      <c r="E105" t="s">
+        <v>249</v>
+      </c>
+      <c r="F105">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>245</v>
+      </c>
+      <c r="H105">
+        <v>208</v>
+      </c>
+      <c r="I105" t="s">
+        <v>268</v>
+      </c>
+      <c r="L105">
+        <v>1043</v>
+      </c>
+      <c r="M105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>629747</v>
+      </c>
+      <c r="B106">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+      <c r="D106">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>249</v>
+      </c>
+      <c r="F106">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106">
+        <v>208</v>
+      </c>
+      <c r="I106" t="s">
+        <v>268</v>
+      </c>
+      <c r="L106">
+        <v>1044</v>
+      </c>
+      <c r="M106" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="7">
+        <v>629756</v>
+      </c>
+      <c r="B107" s="7">
+        <v>15</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" s="7">
+        <v>102</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F107" s="7">
+        <v>19</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H107" s="7">
+        <v>208</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L107" s="7">
+        <v>1052</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A108" s="7">
+        <v>629735</v>
+      </c>
+      <c r="B108" s="7">
+        <v>22</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D108">
+        <v>102</v>
+      </c>
+      <c r="E108" t="s">
+        <v>249</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>246</v>
+      </c>
+      <c r="H108">
+        <v>208</v>
+      </c>
+      <c r="I108" t="s">
+        <v>268</v>
+      </c>
+      <c r="J108" t="s">
+        <v>340</v>
+      </c>
+      <c r="K108" t="s">
+        <v>316</v>
+      </c>
+      <c r="L108">
+        <v>1041</v>
+      </c>
+      <c r="M108" t="s">
+        <v>312</v>
+      </c>
+      <c r="N108">
+        <v>1042</v>
+      </c>
+      <c r="O108" t="s">
+        <v>313</v>
+      </c>
+      <c r="P108">
+        <v>1051</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>315</v>
+      </c>
+      <c r="R108">
+        <v>1052</v>
+      </c>
+      <c r="S108" t="s">
+        <v>341</v>
+      </c>
+      <c r="T108">
+        <v>1043</v>
+      </c>
+      <c r="U108" t="s">
+        <v>314</v>
+      </c>
+      <c r="V108">
+        <v>1046</v>
+      </c>
+      <c r="W108" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>629747</v>
+      </c>
+      <c r="B109">
+        <v>26</v>
+      </c>
+      <c r="C109" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109">
+        <v>102</v>
+      </c>
+      <c r="E109" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>246</v>
+      </c>
+      <c r="H109">
+        <v>208</v>
+      </c>
+      <c r="I109" t="s">
+        <v>268</v>
+      </c>
+      <c r="L109">
+        <v>1046</v>
+      </c>
+      <c r="M109" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A110">
         <v>629748</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B110" t="s">
         <v>156</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C110" t="s">
         <v>157</v>
       </c>
-      <c r="D105">
+      <c r="D110">
         <v>95073</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E110" t="s">
         <v>129</v>
       </c>
-      <c r="F105">
+      <c r="F110">
         <v>279357</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G110" t="s">
         <v>116</v>
       </c>
-      <c r="H105">
+      <c r="H110">
         <v>1198</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I110" t="s">
         <v>48</v>
       </c>
-      <c r="L105">
+      <c r="L110">
         <v>1048</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M110" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A106" s="6">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>629758</v>
+      </c>
+      <c r="B111">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
+        <v>163</v>
+      </c>
+      <c r="D111">
+        <v>95073</v>
+      </c>
+      <c r="E111" t="s">
+        <v>129</v>
+      </c>
+      <c r="F111">
+        <v>279357</v>
+      </c>
+      <c r="G111" t="s">
+        <v>116</v>
+      </c>
+      <c r="H111">
+        <v>209</v>
+      </c>
+      <c r="I111" t="s">
+        <v>269</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="L111">
+        <v>1047</v>
+      </c>
+      <c r="M111" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
         <v>629754</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B112" s="6">
         <v>13</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D112" s="6">
         <v>53869</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F112" s="6">
         <v>265065</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H112" s="6">
         <v>772</v>
       </c>
-      <c r="I106" s="6" t="s">
+      <c r="I112" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J106" s="6"/>
-      <c r="L106" s="6">
+      <c r="J112" s="6"/>
+      <c r="L112" s="6">
         <v>112424</v>
       </c>
-      <c r="M106" s="6" t="s">
+      <c r="M112" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A107" s="6">
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A113" s="6">
         <v>629754</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B113" s="6">
         <v>13</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C113" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D113" s="6">
         <v>53869</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F113" s="6">
         <v>265065</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="G113" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H113" s="6">
         <v>772</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I113" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J107" s="6"/>
-      <c r="L107" s="6">
+      <c r="J113" s="6"/>
+      <c r="L113" s="6">
         <v>95591</v>
       </c>
-      <c r="M107" s="6" t="s">
+      <c r="M113" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N107" s="6"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A108" s="8">
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A114" s="8">
         <v>629757</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B114" s="8">
         <v>16</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D114" s="8">
         <v>18663</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F108" s="8">
+      <c r="F114" s="8">
         <v>312178</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G114" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H108" s="8">
+      <c r="H114" s="8">
         <v>594</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I114" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J108" s="8"/>
-      <c r="L108" s="8">
+      <c r="J114" s="8"/>
+      <c r="L114" s="8">
         <v>130283</v>
       </c>
-      <c r="M108" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="N108" s="8"/>
+      <c r="M114" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="N114" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5839,7 +6076,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6160,7 +6397,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -6171,7 +6408,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -6182,7 +6419,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -6193,7 +6430,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D24">
         <v>1090</v>
@@ -6207,7 +6444,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -6218,7 +6455,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D26">
         <v>1088</v>
@@ -6235,7 +6472,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D27">
         <v>1087</v>
@@ -6252,7 +6489,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D28">
         <v>1089</v>
@@ -6269,7 +6506,10 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="E29" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -7086,7 +7326,7 @@
         <v>1039</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
         <v>207</v>
@@ -7264,10 +7504,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:B83"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B132" sqref="A132:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8337,8 +8577,51 @@
         <v>130283</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>344</v>
-      </c>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>1053</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>1054</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="7">
+        <v>1055</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="7">
+        <v>1056</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="7">
+        <v>1057</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B139" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mallar/import/sm_nm 2023/extraktion_01-SMNM2023 - med NM.xlsx
+++ b/mallar/import/sm_nm 2023/extraktion_01-SMNM2023 - med NM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\sm_nm 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE99F41-2BEA-48EF-BE71-2EB74F8A8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15621C61-875A-41D6-B5F6-5DED06B8D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" tabRatio="483" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="43080" yWindow="5310" windowWidth="38640" windowHeight="21240" tabRatio="483" activeTab="5" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="hästar" sheetId="4" r:id="rId4"/>
     <sheet name="klubbar" sheetId="5" r:id="rId5"/>
     <sheet name="voltigörer" sheetId="6" r:id="rId6"/>
+    <sheet name="reservhästar" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="483">
   <si>
     <t>Linda Jenvall</t>
   </si>
@@ -559,18 +560,12 @@
     <t>Uppsala Team Aquila, Alva, Erik, Linnea, Mirabel, Ebba, Thea, , Ryttare: Maria Pedersen, Jenny Redgård, Linn Andersson</t>
   </si>
   <si>
-    <t>Team Luna, Groom och ryttare: Miranda Källström</t>
-  </si>
-  <si>
     <t>Team Afrodite, Startordning: , 1. Linnea Rova, 2. Ebba Olsson, 3. Tora Johansson , 4. Maja Söderberg , 5. Vera Lundell , 6. Meja Högberg , , Ryttare: Marie Johansson , Hästskötare: Elenor Söderberg (107691)</t>
   </si>
   <si>
     <t>Frillesås Rid o Körklubb</t>
   </si>
   <si>
-    <t>Startordning:, Lisa Lövquist, Jennifer Henningsson, Lowelia Hallin, Maja Haraldsson, , Framridare: , Maya Oscarsson, Elsa Stööp, Maja Lövquist</t>
-  </si>
-  <si>
     <t>De startar i följande ordning: Linn Henriksson, Noelle Andreasson, Livia Nilsson, Li Albjär, Thea Hallberg samt Elsa Almryd</t>
   </si>
   <si>
@@ -580,15 +575,6 @@
     <t>Hästskötare/ryttare Miranda Källström</t>
   </si>
   <si>
-    <t>Startordning:, 1. Ida Welander, 2. Emma Helene Kaps</t>
-  </si>
-  <si>
-    <t>Om Amalia startar på reservhästen så är Angelica Glimmerhav linförare</t>
-  </si>
-  <si>
-    <t>Ryttare som rider fram, Miranda Källström</t>
-  </si>
-  <si>
     <t>Önskar boka en tackbox. Önskar även att Fiffi ska stå i hörnbox bredvid Donovan eftersom hon lätt blir brunstig.</t>
   </si>
   <si>
@@ -607,9 +593,6 @@
     <t>missade att fylla i reservlinförare Maria Albjär (31276).</t>
   </si>
   <si>
-    <t>Startordning på Langaller on your  marks: Lovisa Baeckström, Leelo Lennerman, Mirabel Lennerman, Ryttare som rider fram Ellinor Lennerman och Alma Kozma</t>
-  </si>
-  <si>
     <t>Billdals Ridklubb</t>
   </si>
   <si>
@@ -631,12 +614,6 @@
     <t>Ryttare: Martina Kaponen, Maggie Welander, Alma Carlsson, LIsa Isman, Wilda Isman</t>
   </si>
   <si>
-    <t>Ryttare som rider fram: Marie Nitzsche.</t>
-  </si>
-  <si>
-    <t>Ordning:, Smilla Nitzsche,, Jennifer Henningsson,, Ebba Lämpegård,, Maja Haraldsson, , Framridare: , Amanda Schyman</t>
-  </si>
-  <si>
     <t>Extra ryttare: Liv Dahlgren 99030</t>
   </si>
   <si>
@@ -649,9 +626,6 @@
     <t>Startordning på Langaller on your  marks: Lovisa Baeckström, Leelo Lennerman, Mirabel Lennerman</t>
   </si>
   <si>
-    <t>Information om hästar, uppstallning och ryttare finns i parallell anmälan från Hamre.</t>
-  </si>
-  <si>
     <t>Ryttare/hästskötare - Jenny Rova , , Startordning - Turbic boy , Eveline Törnros , Jennie Johansson , Leonora Söderman , Lovisa Grip</t>
   </si>
   <si>
@@ -853,9 +827,6 @@
     <t>EST</t>
   </si>
   <si>
-    <t>Max Tage Valdemar Øverland, Gina Boganes Apeland, Sindre Nordeide</t>
-  </si>
-  <si>
     <t>Max Tage Valdemar Øverland</t>
   </si>
   <si>
@@ -1003,18 +974,12 @@
     <t>Josefine Egelund, Josefine Nielsen, Wilma Askbo</t>
   </si>
   <si>
-    <t>Ida Welander, Emma Kaps</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>Linnea Aanonsen, Anniken Hatlevoll Gjennestad, Mathilde Hatlevoll Gjennestad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Siiri Lehtinen, Silja Lees </t>
   </si>
   <si>
@@ -1039,9 +1004,6 @@
     <t>Rudi, Nita</t>
   </si>
   <si>
-    <t>Molly Wickholm, Papu Alanko, Lotta Pekkinen</t>
-  </si>
-  <si>
     <t>Peppi Rasi, Annika Tamminen</t>
   </si>
   <si>
@@ -1057,9 +1019,6 @@
     <t>Vuokko Toivanen, Pinja Nykänen</t>
   </si>
   <si>
-    <t>Amanda Mankinen, Juulia Granberg, Kaisa Hujanen, Alisa Arajärvi</t>
-  </si>
-  <si>
     <t>Amanda Mankinen, Juulia Granberg, Alisa Arajärvi, Olga Fagerström, Kaisa Hujanen, Reea Rönnberg (reserv: Nelli Taipale)</t>
   </si>
   <si>
@@ -1124,23 +1083,421 @@
   </si>
   <si>
     <t>Linnea, Amalia Glimmerhav, Edla Danielsson, Anna-Liisa Anson</t>
+  </si>
+  <si>
+    <t>Heitti Räisänen</t>
+  </si>
+  <si>
+    <t>Gold 2</t>
+  </si>
+  <si>
+    <t>Gold 4</t>
+  </si>
+  <si>
+    <t>Gold 5</t>
+  </si>
+  <si>
+    <t>Gold 7</t>
+  </si>
+  <si>
+    <t>Gold 8</t>
+  </si>
+  <si>
+    <t>Gold 1</t>
+  </si>
+  <si>
+    <t>Gold 3</t>
+  </si>
+  <si>
+    <t>Green 2</t>
+  </si>
+  <si>
+    <t>Green 11</t>
+  </si>
+  <si>
+    <t>Green 12</t>
+  </si>
+  <si>
+    <t>Green 20</t>
+  </si>
+  <si>
+    <t>Green 19</t>
+  </si>
+  <si>
+    <t>Green 18</t>
+  </si>
+  <si>
+    <t>Green 17</t>
+  </si>
+  <si>
+    <t>Green 16</t>
+  </si>
+  <si>
+    <t>Green 15</t>
+  </si>
+  <si>
+    <t>Green 13</t>
+  </si>
+  <si>
+    <t>Green 14</t>
+  </si>
+  <si>
+    <t>Green 22</t>
+  </si>
+  <si>
+    <t>Green 23</t>
+  </si>
+  <si>
+    <t>Green 37</t>
+  </si>
+  <si>
+    <t>Green 24</t>
+  </si>
+  <si>
+    <t>Green 25</t>
+  </si>
+  <si>
+    <t>Green 26</t>
+  </si>
+  <si>
+    <t>Green 27</t>
+  </si>
+  <si>
+    <t>Green 28</t>
+  </si>
+  <si>
+    <t>Green 21</t>
+  </si>
+  <si>
+    <t>Green 4</t>
+  </si>
+  <si>
+    <t>Green 10</t>
+  </si>
+  <si>
+    <t>Green 29</t>
+  </si>
+  <si>
+    <t>Green 30</t>
+  </si>
+  <si>
+    <t>Green 31</t>
+  </si>
+  <si>
+    <t>Green 34</t>
+  </si>
+  <si>
+    <t>Green 35</t>
+  </si>
+  <si>
+    <t>Green 36</t>
+  </si>
+  <si>
+    <t>Green 5</t>
+  </si>
+  <si>
+    <t>Green 3</t>
+  </si>
+  <si>
+    <t>Green 8</t>
+  </si>
+  <si>
+    <t>Green 7</t>
+  </si>
+  <si>
+    <t>White 11</t>
+  </si>
+  <si>
+    <t>White 12</t>
+  </si>
+  <si>
+    <t>White 16</t>
+  </si>
+  <si>
+    <t>White 15</t>
+  </si>
+  <si>
+    <t>White 10</t>
+  </si>
+  <si>
+    <t>Black 7</t>
+  </si>
+  <si>
+    <t>Black 13</t>
+  </si>
+  <si>
+    <t>Black 1</t>
+  </si>
+  <si>
+    <t>Black 8</t>
+  </si>
+  <si>
+    <t>Black 16</t>
+  </si>
+  <si>
+    <t>Black 15</t>
+  </si>
+  <si>
+    <t>Black 9</t>
+  </si>
+  <si>
+    <t>Black 14</t>
+  </si>
+  <si>
+    <t>Black 10</t>
+  </si>
+  <si>
+    <t>Red 20</t>
+  </si>
+  <si>
+    <t>Red 23</t>
+  </si>
+  <si>
+    <t>Red 10</t>
+  </si>
+  <si>
+    <t>Red 7</t>
+  </si>
+  <si>
+    <t>Red 21</t>
+  </si>
+  <si>
+    <t>Red 22</t>
+  </si>
+  <si>
+    <t>Red 8</t>
+  </si>
+  <si>
+    <t>Red 29</t>
+  </si>
+  <si>
+    <t>Red 30</t>
+  </si>
+  <si>
+    <t>Red 14</t>
+  </si>
+  <si>
+    <t>Red 26</t>
+  </si>
+  <si>
+    <t>Red 27</t>
+  </si>
+  <si>
+    <t>Red 15</t>
+  </si>
+  <si>
+    <t>Red 16</t>
+  </si>
+  <si>
+    <t>Red 12</t>
+  </si>
+  <si>
+    <t>Red 25</t>
+  </si>
+  <si>
+    <t>Red 1</t>
+  </si>
+  <si>
+    <t>Red 2</t>
+  </si>
+  <si>
+    <t>Red 3</t>
+  </si>
+  <si>
+    <t>Red 5</t>
+  </si>
+  <si>
+    <t>Red 4</t>
+  </si>
+  <si>
+    <t>Red 31</t>
+  </si>
+  <si>
+    <t>Red 32</t>
+  </si>
+  <si>
+    <t>Red 33</t>
+  </si>
+  <si>
+    <t>Red 34</t>
+  </si>
+  <si>
+    <t>Red 35</t>
+  </si>
+  <si>
+    <t>Red 36</t>
+  </si>
+  <si>
+    <t>Red 37</t>
+  </si>
+  <si>
+    <t>Red 38</t>
+  </si>
+  <si>
+    <t>Red 39</t>
+  </si>
+  <si>
+    <t>Red 40</t>
+  </si>
+  <si>
+    <t>Red 41</t>
+  </si>
+  <si>
+    <t>Red 42</t>
+  </si>
+  <si>
+    <t>Red 11</t>
+  </si>
+  <si>
+    <t>Red 19</t>
+  </si>
+  <si>
+    <t>Red 18</t>
+  </si>
+  <si>
+    <t>Blue 14</t>
+  </si>
+  <si>
+    <t>Blue 1</t>
+  </si>
+  <si>
+    <t>Blue 12</t>
+  </si>
+  <si>
+    <t>Blue 8</t>
+  </si>
+  <si>
+    <t>Blue 3</t>
+  </si>
+  <si>
+    <t>Blue 10</t>
+  </si>
+  <si>
+    <t>Blue 7</t>
+  </si>
+  <si>
+    <t>Blue 2</t>
+  </si>
+  <si>
+    <t>Blue 15</t>
+  </si>
+  <si>
+    <t>Blue 5</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Lyra Rae</t>
+  </si>
+  <si>
+    <t>Reservhäst 310234 Sems Team Luna, Groom och ryttare: Miranda Källström</t>
+  </si>
+  <si>
+    <t>Reservhäst 301477 Normandie - Startordning:, Lisa Lövquist, Jennifer Henningsson, Lowelia Hallin, Maja Haraldsson, , Framridare: , Maya Oscarsson, Elsa Stööp, Maja Lövquist</t>
+  </si>
+  <si>
+    <t>Reservhäst 291299 Donald - Om Amalia startar på reservhästen så är Angelica Glimmerhav linförare</t>
+  </si>
+  <si>
+    <t>Reservhäst: 312598 Diamond</t>
+  </si>
+  <si>
+    <t>Reservhäst 279357 Halving - Ryttare som rider fram, Miranda Källström</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservhäst 279357 Halving - </t>
+  </si>
+  <si>
+    <t>Reservhäst: 301477 Normandie</t>
+  </si>
+  <si>
+    <t>Reservhäst: 279357	Halving</t>
+  </si>
+  <si>
+    <t>Reservhäst 266295	Apache Startordning på Langaller on your  marks: Lovisa Baeckström, Leelo Lennerman, Mirabel Lennerman, Ryttare som rider fram Ellinor Lennerman och Alma Kozma</t>
+  </si>
+  <si>
+    <t>Reservhäst: 265064	Lyra Rae</t>
+  </si>
+  <si>
+    <t>Reservhäst: 301477	Normandie - Ryttare som rider fram: Marie Nitzsche.</t>
+  </si>
+  <si>
+    <t>Reservhäst 301477	Normandie</t>
+  </si>
+  <si>
+    <t>Reservhäst:301477	Normandie -  Ordning:, Smilla Nitzsche,, Jennifer Henningsson,, Ebba Lämpegård,, Maja Haraldsson, , Framridare: , Amanda Schyman</t>
+  </si>
+  <si>
+    <t>Reservhäst: 306380	Donovan - Information om hästar, uppstallning och ryttare finns i parallell anmälan från Hamre.</t>
+  </si>
+  <si>
+    <t>Reservhäst: Scarlet 689 og Leksuss - Max Tage Valdemar Øverland, Gina Boganes Apeland, Sindre Nordeide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservhäst: Scarlet 689 og Leksuss - </t>
+  </si>
+  <si>
+    <t>Reservhäst: Sunday Song -Reservlongör: Julie Fog-Møller -  Ordning: Ida Welander, Emma Kaps</t>
+  </si>
+  <si>
+    <t>Reservhäst: Sunday Song - Reservlongör: Julie Fog-Møller - Startordning:, 1. Ida Welander, 2. Emma Helene Kaps</t>
+  </si>
+  <si>
+    <t>Reservhäst: Scarlett 689 og Leksuss</t>
+  </si>
+  <si>
+    <t>Reservhäst: Scarlett 689 og Leksuss - Linnea Aanonsen, Anniken Hatlevoll Gjennestad, Mathilde Hatlevoll Gjennestad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservhäst: Scarlett 689 og Leksuss - </t>
+  </si>
+  <si>
+    <t>Reservlongör: Anni Järvelä - Molly Wickholm, Papu Alanko, Lotta Pekkinen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservlongör: Anni Järvelä - </t>
+  </si>
+  <si>
+    <t>Reservhäst: Rumbolt- Amanda Mankinen, Juulia Granberg, Kaisa Hujanen, Alisa Arajärvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reservhäst: Rumbolt- </t>
+  </si>
+  <si>
+    <t>Julie Fog-Møller</t>
+  </si>
+  <si>
+    <t>Individuell minior 1* (CH1*)NM-klass</t>
+  </si>
+  <si>
+    <t>Individuell minior 1* (CH1*) SM-klass</t>
+  </si>
+  <si>
+    <t>Individuell minior 1* (CH1*) SM-NM kombinerat</t>
+  </si>
+  <si>
+    <t>Individuell minior 1* (CH1*) Nationell klass</t>
+  </si>
+  <si>
+    <t>Noona Matintupa</t>
+  </si>
+  <si>
+    <t>Hilda Postareff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1190,16 +1547,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1514,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
-  <dimension ref="A1:W114"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1539,7 +1897,7 @@
     <col min="23" max="23" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>629733</v>
       </c>
@@ -1571,7 +1929,7 @@
         <v>170</v>
       </c>
       <c r="K1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L1">
         <v>105241</v>
@@ -1610,7 +1968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>629733</v>
       </c>
@@ -1642,7 +2000,7 @@
         <v>171</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L2">
         <v>74165</v>
@@ -1681,7 +2039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>629733</v>
       </c>
@@ -1710,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="L3">
         <v>115495</v>
@@ -1749,7 +2107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>629734</v>
       </c>
@@ -1781,7 +2139,7 @@
         <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="L4">
         <v>150025</v>
@@ -1820,7 +2178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>629736</v>
       </c>
@@ -1849,10 +2207,10 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="K5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L5">
         <v>108087</v>
@@ -1890,8 +2248,10 @@
       <c r="W5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>629736</v>
       </c>
@@ -1920,10 +2280,10 @@
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L6">
         <v>107737</v>
@@ -1962,78 +2322,78 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+    <row r="7" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
         <v>629736</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>18663</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>297396</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>594</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="I7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="5">
+        <v>155756</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="5">
+        <v>164002</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="5">
+        <v>160046</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="5">
+        <v>152057</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="5">
+        <v>172972</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="V7" s="5">
         <v>140835</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="W7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="4">
-        <v>155756</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="4">
-        <v>172972</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="R7" s="4">
-        <v>164002</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="T7" s="4">
-        <v>160046</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V7" s="4">
-        <v>152057</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>629736</v>
       </c>
@@ -2062,10 +2422,10 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L8">
         <v>130120</v>
@@ -2104,7 +2464,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>629739</v>
       </c>
@@ -2139,7 +2499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>629739</v>
       </c>
@@ -2174,7 +2534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>629742</v>
       </c>
@@ -2209,7 +2569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>629748</v>
       </c>
@@ -2238,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="L12">
         <v>164010</v>
@@ -2247,7 +2607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>629742</v>
       </c>
@@ -2276,7 +2636,7 @@
         <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L13">
         <v>96828</v>
@@ -2285,7 +2645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>629748</v>
       </c>
@@ -2314,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L14">
         <v>155140</v>
@@ -2323,7 +2683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>629742</v>
       </c>
@@ -2352,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L15">
         <v>74165</v>
@@ -2361,7 +2721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>629742</v>
       </c>
@@ -2390,7 +2750,7 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>468</v>
       </c>
       <c r="L16">
         <v>124198</v>
@@ -2463,7 +2823,7 @@
         <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>453</v>
       </c>
       <c r="L18">
         <v>60750</v>
@@ -2535,6 +2895,9 @@
       <c r="I20" t="s">
         <v>2</v>
       </c>
+      <c r="J20" t="s">
+        <v>454</v>
+      </c>
       <c r="L20">
         <v>69830</v>
       </c>
@@ -2606,7 +2969,7 @@
         <v>48</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>455</v>
       </c>
       <c r="L22">
         <v>134138</v>
@@ -2644,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L23">
         <v>134608</v>
@@ -2681,6 +3044,9 @@
       <c r="I24" t="s">
         <v>48</v>
       </c>
+      <c r="J24" t="s">
+        <v>456</v>
+      </c>
       <c r="L24">
         <v>107961</v>
       </c>
@@ -2717,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L25">
         <v>101580</v>
@@ -2755,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L26">
         <v>101407</v>
@@ -2792,6 +3158,9 @@
       <c r="I27" t="s">
         <v>48</v>
       </c>
+      <c r="J27" t="s">
+        <v>458</v>
+      </c>
       <c r="L27">
         <v>108087</v>
       </c>
@@ -2828,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L28">
         <v>109403</v>
@@ -2866,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L29">
         <v>150025</v>
@@ -2904,7 +3273,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L30">
         <v>87139</v>
@@ -2977,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L32">
         <v>145200</v>
@@ -3015,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>189</v>
+        <v>459</v>
       </c>
       <c r="L33">
         <v>149851</v>
@@ -3053,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L34">
         <v>169475</v>
@@ -3123,7 +3492,7 @@
         <v>628</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L36">
         <v>120917</v>
@@ -3158,7 +3527,7 @@
         <v>589</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L37">
         <v>166499</v>
@@ -3231,7 +3600,7 @@
         <v>55</v>
       </c>
       <c r="J39" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L39">
         <v>164089</v>
@@ -3266,7 +3635,10 @@
         <v>669</v>
       </c>
       <c r="I40" t="s">
-        <v>194</v>
+        <v>188</v>
+      </c>
+      <c r="J40" t="s">
+        <v>460</v>
       </c>
       <c r="L40">
         <v>167975</v>
@@ -3304,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L41">
         <v>150091</v>
@@ -3342,7 +3714,7 @@
         <v>9</v>
       </c>
       <c r="J42" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L42">
         <v>155892</v>
@@ -3379,6 +3751,9 @@
       <c r="I43" t="s">
         <v>48</v>
       </c>
+      <c r="J43" t="s">
+        <v>458</v>
+      </c>
       <c r="L43">
         <v>129688</v>
       </c>
@@ -3412,10 +3787,10 @@
         <v>594</v>
       </c>
       <c r="I44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J44" t="s">
-        <v>197</v>
+        <v>461</v>
       </c>
       <c r="L44">
         <v>151413</v>
@@ -3450,7 +3825,10 @@
         <v>594</v>
       </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="J45" t="s">
+        <v>462</v>
       </c>
       <c r="L45">
         <v>164002</v>
@@ -3485,10 +3863,10 @@
         <v>594</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J46" t="s">
-        <v>198</v>
+        <v>463</v>
       </c>
       <c r="L46">
         <v>177919</v>
@@ -3523,7 +3901,10 @@
         <v>594</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="J47" t="s">
+        <v>457</v>
       </c>
       <c r="L47">
         <v>152057</v>
@@ -3561,7 +3942,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="L48">
         <v>145224</v>
@@ -3599,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>203</v>
+        <v>464</v>
       </c>
       <c r="L49">
         <v>145535</v>
@@ -3634,7 +4015,7 @@
         <v>628</v>
       </c>
       <c r="I50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L50">
         <v>123786</v>
@@ -3672,7 +4053,7 @@
         <v>55</v>
       </c>
       <c r="J51" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L51">
         <v>50023</v>
@@ -3710,7 +4091,7 @@
         <v>55</v>
       </c>
       <c r="J52" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L52">
         <v>64248</v>
@@ -3748,7 +4129,7 @@
         <v>55</v>
       </c>
       <c r="J53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L53">
         <v>123591</v>
@@ -3818,10 +4199,10 @@
         <v>772</v>
       </c>
       <c r="I55" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K55" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L55">
         <v>112424</v>
@@ -3865,10 +4246,10 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L56">
         <v>38739</v>
@@ -3909,10 +4290,10 @@
         <v>589</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K57" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L57">
         <v>103221</v>
@@ -3941,28 +4322,28 @@
         <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H58">
         <v>200</v>
       </c>
       <c r="I58" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J58" t="s">
-        <v>271</v>
-      </c>
-      <c r="L58" s="7">
+        <v>465</v>
+      </c>
+      <c r="L58">
         <v>1000</v>
       </c>
-      <c r="M58" s="7" t="s">
-        <v>272</v>
+      <c r="M58" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
@@ -3979,25 +4360,28 @@
         <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H59">
         <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
       </c>
       <c r="L59">
         <v>1001</v>
       </c>
       <c r="M59" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
@@ -4014,25 +4398,28 @@
         <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H60">
         <v>200</v>
       </c>
       <c r="I60" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="J60" t="s">
+        <v>466</v>
       </c>
       <c r="L60">
         <v>1002</v>
       </c>
       <c r="M60" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
@@ -4049,28 +4436,28 @@
         <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H61">
         <v>201</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J61" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L61">
         <v>1003</v>
       </c>
       <c r="M61" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
@@ -4087,25 +4474,25 @@
         <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H62">
         <v>201</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L62">
         <v>1004</v>
       </c>
       <c r="M62" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -4122,60 +4509,60 @@
         <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H63">
         <v>201</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L63">
         <v>1005</v>
       </c>
       <c r="M63" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A64">
         <v>629756</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64">
         <v>15</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64">
         <v>101</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="E64" t="s">
+        <v>239</v>
+      </c>
+      <c r="F64">
         <v>2</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H64" s="7">
+      <c r="G64" t="s">
+        <v>219</v>
+      </c>
+      <c r="H64">
         <v>210</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L64" s="7">
+      <c r="I64" t="s">
+        <v>311</v>
+      </c>
+      <c r="L64">
         <v>1053</v>
       </c>
-      <c r="M64" s="7" t="s">
-        <v>354</v>
+      <c r="M64" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
@@ -4204,16 +4591,16 @@
         <v>202</v>
       </c>
       <c r="I65" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="J65" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="L65">
         <v>1007</v>
       </c>
       <c r="M65" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
@@ -4230,25 +4617,25 @@
         <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F66">
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H66">
         <v>201</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L66">
         <v>1008</v>
       </c>
       <c r="M66" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
@@ -4271,19 +4658,19 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H67">
         <v>210</v>
       </c>
       <c r="I67" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L67">
         <v>1009</v>
       </c>
       <c r="M67" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
@@ -4300,25 +4687,28 @@
         <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="G68" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H68">
         <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="J68" t="s">
+        <v>469</v>
       </c>
       <c r="L68">
         <v>1010</v>
       </c>
       <c r="M68" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
@@ -4335,28 +4725,28 @@
         <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H69">
         <v>200</v>
       </c>
       <c r="I69" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="J69" t="s">
-        <v>324</v>
+        <v>470</v>
       </c>
       <c r="L69">
         <v>1011</v>
       </c>
       <c r="M69" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
@@ -4373,25 +4763,28 @@
         <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H70">
         <v>200</v>
       </c>
       <c r="I70" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="J70" t="s">
+        <v>471</v>
       </c>
       <c r="L70">
         <v>1012</v>
       </c>
       <c r="M70" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
@@ -4408,25 +4801,28 @@
         <v>106</v>
       </c>
       <c r="E71" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F71">
         <v>8</v>
       </c>
       <c r="G71" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H71">
         <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="J71" t="s">
+        <v>471</v>
       </c>
       <c r="L71">
         <v>1013</v>
       </c>
       <c r="M71" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
@@ -4443,28 +4839,28 @@
         <v>107</v>
       </c>
       <c r="E72" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F72">
         <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H72">
         <v>203</v>
       </c>
       <c r="I72" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J72" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L72">
         <v>1014</v>
       </c>
       <c r="M72" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
@@ -4481,63 +4877,63 @@
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F73">
         <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H73">
         <v>203</v>
       </c>
       <c r="I73" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L73">
         <v>1015</v>
       </c>
       <c r="M73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A74" s="4">
         <v>629754</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="4">
         <v>13</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74">
         <v>107</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" s="7">
+      <c r="E74" t="s">
+        <v>245</v>
+      </c>
+      <c r="F74">
         <v>9</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H74" s="7">
+      <c r="G74" t="s">
+        <v>226</v>
+      </c>
+      <c r="H74">
         <v>203</v>
       </c>
-      <c r="I74" s="7" t="s">
-        <v>262</v>
+      <c r="I74" t="s">
+        <v>253</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="L74" s="7">
+        <v>342</v>
+      </c>
+      <c r="L74">
         <v>1054</v>
       </c>
-      <c r="M74" s="7" t="s">
-        <v>355</v>
+      <c r="M74" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
@@ -4554,28 +4950,28 @@
         <v>107</v>
       </c>
       <c r="E75" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H75">
         <v>203</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J75" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L75">
         <v>1016</v>
       </c>
       <c r="M75" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
@@ -4592,25 +4988,25 @@
         <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F76">
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H76">
         <v>203</v>
       </c>
       <c r="I76" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L76">
         <v>1017</v>
       </c>
       <c r="M76" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
@@ -4627,28 +5023,28 @@
         <v>107</v>
       </c>
       <c r="E77" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F77">
         <v>10</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H77">
         <v>203</v>
       </c>
       <c r="I77" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J77" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L77">
         <v>1018</v>
       </c>
       <c r="M77" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
@@ -4665,25 +5061,25 @@
         <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F78">
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="H78">
         <v>203</v>
       </c>
       <c r="I78" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L78">
         <v>1019</v>
       </c>
       <c r="M78" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
@@ -4700,28 +5096,28 @@
         <v>107</v>
       </c>
       <c r="E79" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F79">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H79">
         <v>204</v>
       </c>
       <c r="I79" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="J79" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L79">
         <v>1020</v>
       </c>
       <c r="M79" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
@@ -4738,25 +5134,25 @@
         <v>107</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F80">
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H80">
         <v>204</v>
       </c>
       <c r="I80" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L80">
         <v>1021</v>
       </c>
       <c r="M80" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.45">
@@ -4773,28 +5169,28 @@
         <v>107</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F81">
         <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H81">
         <v>204</v>
       </c>
       <c r="I81" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="J81" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L81">
         <v>1022</v>
       </c>
       <c r="M81" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.45">
@@ -4811,25 +5207,25 @@
         <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F82">
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H82">
         <v>204</v>
       </c>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L82">
         <v>1023</v>
       </c>
       <c r="M82" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.45">
@@ -4846,28 +5242,28 @@
         <v>109</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F83">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H83">
         <v>205</v>
       </c>
       <c r="I83" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="J83" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L83">
         <v>1024</v>
       </c>
       <c r="M83" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.45">
@@ -4884,25 +5280,25 @@
         <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F84">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H84">
         <v>205</v>
       </c>
       <c r="I84" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L84">
         <v>1025</v>
       </c>
       <c r="M84" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.45">
@@ -4919,60 +5315,60 @@
         <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F85">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H85">
         <v>205</v>
       </c>
       <c r="I85" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L85">
         <v>1026</v>
       </c>
       <c r="M85" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>629747</v>
+        <v>629759</v>
       </c>
       <c r="B86">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="D86">
         <v>109</v>
       </c>
       <c r="E86" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F86">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="H86">
         <v>205</v>
       </c>
       <c r="I86" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L86">
         <v>1027</v>
       </c>
       <c r="M86" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.45">
@@ -4989,28 +5385,28 @@
         <v>110</v>
       </c>
       <c r="E87" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F87">
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H87">
         <v>206</v>
       </c>
       <c r="I87" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J87" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L87">
         <v>1028</v>
       </c>
       <c r="M87" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.45">
@@ -5027,25 +5423,25 @@
         <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F88">
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H88">
         <v>206</v>
       </c>
       <c r="I88" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L88">
         <v>1029</v>
       </c>
       <c r="M88" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.45">
@@ -5062,25 +5458,25 @@
         <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F89">
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H89">
         <v>206</v>
       </c>
       <c r="I89" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L89">
         <v>1030</v>
       </c>
       <c r="M89" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.45">
@@ -5097,37 +5493,37 @@
         <v>110</v>
       </c>
       <c r="E90" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F90">
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H90">
         <v>206</v>
       </c>
       <c r="I90" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J90" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K90" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L90">
         <v>1029</v>
       </c>
       <c r="M90" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N90">
         <v>1028</v>
       </c>
       <c r="O90" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.45">
@@ -5144,28 +5540,28 @@
         <v>100</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F91">
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H91">
         <v>203</v>
       </c>
       <c r="I91" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J91" t="s">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="L91">
         <v>1032</v>
       </c>
       <c r="M91" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.45">
@@ -5182,25 +5578,28 @@
         <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F92">
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H92">
         <v>203</v>
       </c>
       <c r="I92" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="J92" t="s">
+        <v>473</v>
       </c>
       <c r="L92">
         <v>1033</v>
       </c>
       <c r="M92" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.45">
@@ -5217,25 +5616,28 @@
         <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F93">
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H93">
         <v>203</v>
       </c>
       <c r="I93" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="J93" t="s">
+        <v>473</v>
       </c>
       <c r="L93">
         <v>1034</v>
       </c>
       <c r="M93" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.45">
@@ -5252,28 +5654,28 @@
         <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F94">
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H94">
         <v>207</v>
       </c>
       <c r="I94" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="J94" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L94">
         <v>1035</v>
       </c>
       <c r="M94" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.45">
@@ -5290,25 +5692,25 @@
         <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F95">
         <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H95">
         <v>207</v>
       </c>
       <c r="I95" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="L95">
         <v>1036</v>
       </c>
       <c r="M95" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.45">
@@ -5325,61 +5727,61 @@
         <v>102</v>
       </c>
       <c r="E96" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F96">
         <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H96">
         <v>208</v>
       </c>
       <c r="I96" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J96" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K96" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L96">
         <v>1049</v>
       </c>
       <c r="M96" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="N96">
         <v>1039</v>
       </c>
       <c r="O96" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="P96">
         <v>1050</v>
       </c>
       <c r="Q96" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="R96">
         <v>1040</v>
       </c>
       <c r="S96" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="T96">
         <v>1018</v>
       </c>
       <c r="U96" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="V96">
         <v>1038</v>
       </c>
       <c r="W96" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.45">
@@ -5396,28 +5798,28 @@
         <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F97">
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H97">
         <v>208</v>
       </c>
       <c r="I97" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J97" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L97">
         <v>1038</v>
       </c>
       <c r="M97" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.45">
@@ -5434,25 +5836,25 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F98">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H98">
         <v>208</v>
       </c>
       <c r="I98" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="L98">
         <v>1039</v>
       </c>
       <c r="M98" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.45">
@@ -5469,133 +5871,133 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F99">
         <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="H99">
         <v>208</v>
       </c>
       <c r="I99" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="L99">
         <v>1040</v>
       </c>
       <c r="M99" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A100">
         <v>629759</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100">
         <v>18</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D100" s="7">
+      <c r="C100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100">
         <v>102</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F100" s="7">
+      <c r="E100" t="s">
+        <v>240</v>
+      </c>
+      <c r="F100">
         <v>18</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H100" s="7">
+      <c r="G100" t="s">
+        <v>235</v>
+      </c>
+      <c r="H100">
         <v>208</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L100" s="7">
+      <c r="I100" t="s">
+        <v>259</v>
+      </c>
+      <c r="L100">
         <v>1055</v>
       </c>
-      <c r="M100" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="7">
+      <c r="M100" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A101">
         <v>629759</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101">
         <v>18</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D101" s="7">
+      <c r="C101" t="s">
+        <v>338</v>
+      </c>
+      <c r="D101">
         <v>102</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F101" s="7">
+      <c r="E101" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101">
         <v>18</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H101" s="7">
+      <c r="G101" t="s">
+        <v>235</v>
+      </c>
+      <c r="H101">
         <v>208</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L101" s="7">
+      <c r="I101" t="s">
+        <v>259</v>
+      </c>
+      <c r="L101">
         <v>1056</v>
       </c>
-      <c r="M101" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="7">
+      <c r="M101" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A102">
         <v>629759</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102">
         <v>18</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D102" s="7">
+      <c r="C102" t="s">
+        <v>338</v>
+      </c>
+      <c r="D102">
         <v>102</v>
       </c>
-      <c r="E102" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F102" s="7">
+      <c r="E102" t="s">
+        <v>240</v>
+      </c>
+      <c r="F102">
         <v>18</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H102" s="7">
+      <c r="G102" t="s">
+        <v>235</v>
+      </c>
+      <c r="H102">
         <v>208</v>
       </c>
-      <c r="I102" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L102" s="7">
+      <c r="I102" t="s">
+        <v>259</v>
+      </c>
+      <c r="L102">
         <v>1057</v>
       </c>
-      <c r="M102" s="7" t="s">
-        <v>360</v>
+      <c r="M102" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.45">
@@ -5612,28 +6014,28 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F103">
         <v>19</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H103">
         <v>208</v>
       </c>
       <c r="I103" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J103" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="L103">
         <v>1041</v>
       </c>
       <c r="M103" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.45">
@@ -5650,25 +6052,28 @@
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F104">
         <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H104">
         <v>208</v>
       </c>
       <c r="I104" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="J104" t="s">
+        <v>475</v>
       </c>
       <c r="L104">
         <v>1042</v>
       </c>
       <c r="M104" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.45">
@@ -5685,25 +6090,28 @@
         <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F105">
         <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H105">
         <v>208</v>
       </c>
       <c r="I105" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="J105" t="s">
+        <v>475</v>
       </c>
       <c r="L105">
         <v>1043</v>
       </c>
       <c r="M105" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.45">
@@ -5720,131 +6128,134 @@
         <v>102</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F106">
         <v>19</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H106">
         <v>208</v>
       </c>
       <c r="I106" t="s">
-        <v>268</v>
+        <v>259</v>
+      </c>
+      <c r="J106" t="s">
+        <v>475</v>
       </c>
       <c r="L106">
         <v>1044</v>
       </c>
       <c r="M106" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A107" s="7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A107">
         <v>629756</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107">
         <v>15</v>
       </c>
-      <c r="C107" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D107" s="7">
+      <c r="C107" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107">
         <v>102</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F107" s="7">
+      <c r="E107" t="s">
+        <v>240</v>
+      </c>
+      <c r="F107">
         <v>19</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H107" s="7">
+      <c r="G107" t="s">
+        <v>236</v>
+      </c>
+      <c r="H107">
         <v>208</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L107" s="7">
+      <c r="I107" t="s">
+        <v>259</v>
+      </c>
+      <c r="L107">
         <v>1052</v>
       </c>
-      <c r="M107" s="7" t="s">
-        <v>315</v>
+      <c r="M107" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A108" s="7">
+      <c r="A108">
         <v>629735</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108">
         <v>22</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" t="s">
         <v>139</v>
       </c>
       <c r="D108">
         <v>102</v>
       </c>
       <c r="E108" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F108">
         <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H108">
         <v>208</v>
       </c>
       <c r="I108" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J108" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="K108" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L108">
         <v>1041</v>
       </c>
       <c r="M108" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="N108">
         <v>1042</v>
       </c>
       <c r="O108" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P108">
         <v>1051</v>
       </c>
       <c r="Q108" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="R108">
         <v>1052</v>
       </c>
       <c r="S108" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="T108">
         <v>1043</v>
       </c>
       <c r="U108" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="V108">
         <v>1046</v>
       </c>
       <c r="W108" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.45">
@@ -5861,25 +6272,25 @@
         <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F109">
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="H109">
         <v>208</v>
       </c>
       <c r="I109" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="L109">
         <v>1046</v>
       </c>
       <c r="M109" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.45">
@@ -5914,7 +6325,7 @@
         <v>1048</v>
       </c>
       <c r="M110" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.45">
@@ -5943,128 +6354,167 @@
         <v>209</v>
       </c>
       <c r="I111" t="s">
-        <v>269</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>361</v>
+        <v>260</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="L111">
         <v>1047</v>
       </c>
       <c r="M111" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A112" s="6">
+      <c r="A112" s="4">
         <v>629754</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="4">
         <v>13</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="4">
         <v>53869</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="4">
         <v>265065</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H112" s="4">
         <v>772</v>
       </c>
-      <c r="I112" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J112" s="6"/>
-      <c r="L112" s="6">
+      <c r="I112" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="L112" s="4">
         <v>112424</v>
       </c>
-      <c r="M112" s="6" t="s">
+      <c r="M112" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N112" s="6"/>
+      <c r="N112" s="4"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A113" s="6">
+      <c r="A113" s="4">
         <v>629754</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="4">
         <v>13</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="4">
         <v>53869</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="4">
         <v>265065</v>
       </c>
-      <c r="G113" s="6" t="s">
+      <c r="G113" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H113" s="6">
+      <c r="H113" s="4">
         <v>772</v>
       </c>
-      <c r="I113" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J113" s="6"/>
-      <c r="L113" s="6">
+      <c r="I113" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="L113" s="4">
         <v>95591</v>
       </c>
-      <c r="M113" s="6" t="s">
+      <c r="M113" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N113" s="6"/>
+      <c r="N113" s="4"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A114" s="8">
+      <c r="A114" s="4">
         <v>629757</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="4">
         <v>16</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="4">
         <v>18663</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="4">
         <v>312178</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H114" s="4">
         <v>594</v>
       </c>
-      <c r="I114" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J114" s="8"/>
-      <c r="L114" s="8">
+      <c r="I114" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J114" s="4"/>
+      <c r="L114" s="4">
         <v>130283</v>
       </c>
-      <c r="M114" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="N114" s="8"/>
+      <c r="M114" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>629759</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>338</v>
+      </c>
+      <c r="D115" s="4">
+        <v>18663</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F115" s="4">
+        <v>312178</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H115" s="4">
+        <v>594</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L115" s="5">
+        <v>160046</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6075,8 +6525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D28CB-C6E2-4B8D-9091-1FD20615DBE1}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6110,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -6127,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6144,7 +6594,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -6161,7 +6611,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -6178,7 +6628,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -6206,7 +6656,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -6248,7 +6698,7 @@
         <v>1061</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -6290,10 +6740,10 @@
         <v>1079</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -6318,7 +6768,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>478</v>
       </c>
       <c r="D16">
         <v>1080</v>
@@ -6332,16 +6782,16 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>477</v>
       </c>
       <c r="D17">
         <v>1080</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -6352,7 +6802,7 @@
         <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>479</v>
       </c>
       <c r="D18">
         <v>1080</v>
@@ -6386,7 +6836,7 @@
         <v>1083</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -6397,7 +6847,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -6408,7 +6858,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -6419,7 +6869,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -6430,7 +6880,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D24">
         <v>1090</v>
@@ -6444,7 +6894,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -6455,13 +6905,13 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="D26">
         <v>1088</v>
       </c>
       <c r="E26" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -6472,13 +6922,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D27">
         <v>1087</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -6489,13 +6939,13 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D28">
         <v>1089</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -6506,10 +6956,13 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>352</v>
+        <v>480</v>
+      </c>
+      <c r="D29">
+        <v>1091</v>
       </c>
       <c r="E29" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -6545,10 +6998,10 @@
         <v>167</v>
       </c>
       <c r="D32">
-        <v>1065</v>
+        <v>1094</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -6562,10 +7015,10 @@
         <v>168</v>
       </c>
       <c r="D33">
-        <v>1065</v>
+        <v>1092</v>
       </c>
       <c r="F33" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6575,10 +7028,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB5CEA1-1CE1-4743-9EBE-57C3851E7690}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B29"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6736,7 +7189,7 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -6744,7 +7197,7 @@
         <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -6752,7 +7205,7 @@
         <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -6760,7 +7213,7 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -6768,7 +7221,7 @@
         <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -6776,7 +7229,7 @@
         <v>105</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -6784,7 +7237,7 @@
         <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -6792,7 +7245,7 @@
         <v>107</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -6800,7 +7253,7 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -6808,7 +7261,7 @@
         <v>109</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -6816,7 +7269,15 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="9">
+        <v>111</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -6829,7 +7290,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7059,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -7067,7 +7528,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -7075,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -7083,7 +7544,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -7091,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -7099,7 +7560,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -7107,7 +7568,7 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -7115,7 +7576,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -7123,7 +7584,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -7131,7 +7592,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -7139,7 +7600,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -7147,7 +7608,7 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -7155,7 +7616,7 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -7163,7 +7624,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -7171,7 +7632,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -7179,7 +7640,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
@@ -7187,7 +7648,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -7195,7 +7656,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -7203,7 +7664,7 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -7211,7 +7672,7 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -7282,7 +7743,7 @@
         <v>594</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -7326,10 +7787,10 @@
         <v>1039</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -7337,7 +7798,7 @@
         <v>628</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -7348,7 +7809,7 @@
         <v>589</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -7359,7 +7820,7 @@
         <v>772</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -7370,7 +7831,7 @@
         <v>669</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -7381,10 +7842,10 @@
         <v>200</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -7392,10 +7853,10 @@
         <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -7403,10 +7864,10 @@
         <v>202</v>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -7414,10 +7875,10 @@
         <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -7425,10 +7886,10 @@
         <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -7436,10 +7897,10 @@
         <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -7447,10 +7908,10 @@
         <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -7458,10 +7919,10 @@
         <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -7469,10 +7930,10 @@
         <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -7480,10 +7941,10 @@
         <v>209</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -7491,10 +7952,10 @@
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7504,10 +7965,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B132" sqref="A132:B132"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7516,7 +7977,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>105241</v>
       </c>
@@ -7524,7 +7985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>78364</v>
       </c>
@@ -7532,7 +7993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>105263</v>
       </c>
@@ -7540,7 +8001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>150583</v>
       </c>
@@ -7548,7 +8009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>122188</v>
       </c>
@@ -7556,7 +8017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>150314</v>
       </c>
@@ -7564,47 +8025,62 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>74165</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>69830</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>109403</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>101580</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>145224</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>129881</v>
       </c>
@@ -7612,7 +8088,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>115495</v>
       </c>
@@ -7620,7 +8096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>177357</v>
       </c>
@@ -7628,7 +8104,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>163943</v>
       </c>
@@ -7636,7 +8112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>119893</v>
       </c>
@@ -7644,15 +8120,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>145200</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>124472</v>
       </c>
@@ -7660,47 +8139,62 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>150025</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>150091</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>134608</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>169475</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>155140</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>160950</v>
       </c>
@@ -7708,23 +8202,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>108087</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>134138</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>129079</v>
       </c>
@@ -7732,23 +8232,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>107961</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>129688</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>178209</v>
       </c>
@@ -7756,7 +8262,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>107737</v>
       </c>
@@ -7764,7 +8270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>120375</v>
       </c>
@@ -7772,7 +8278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>129183</v>
       </c>
@@ -7780,7 +8286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>105337</v>
       </c>
@@ -7788,7 +8294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>127857</v>
       </c>
@@ -7796,7 +8302,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>140351</v>
       </c>
@@ -7804,7 +8310,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>140835</v>
       </c>
@@ -7812,7 +8318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>155756</v>
       </c>
@@ -7820,7 +8326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>172972</v>
       </c>
@@ -7828,39 +8334,51 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>164002</v>
       </c>
       <c r="B40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>160046</v>
       </c>
       <c r="B41" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>152057</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>130120</v>
       </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>106989</v>
       </c>
@@ -7868,7 +8386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>107000</v>
       </c>
@@ -7876,7 +8394,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>151292</v>
       </c>
@@ -7884,7 +8402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>137976</v>
       </c>
@@ -7892,7 +8410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>107036</v>
       </c>
@@ -7900,247 +8418,337 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>35251</v>
       </c>
       <c r="B49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>40406</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>106236</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>96828</v>
       </c>
       <c r="B52" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>124198</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>60750</v>
       </c>
       <c r="B54" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>131893</v>
       </c>
       <c r="B55" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>120827</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>101407</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>119967</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>87139</v>
       </c>
       <c r="B59" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>149851</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>162160</v>
       </c>
       <c r="B61" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>120917</v>
       </c>
       <c r="B62" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>166499</v>
       </c>
       <c r="B63" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>164089</v>
       </c>
       <c r="B64" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>123591</v>
       </c>
       <c r="B65" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>167975</v>
       </c>
       <c r="B66" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>155892</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>151413</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>177919</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>164010</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>145535</v>
       </c>
       <c r="B71" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>51513</v>
       </c>
       <c r="B72" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>108189</v>
       </c>
       <c r="B73" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>123786</v>
       </c>
       <c r="B74" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>64248</v>
       </c>
       <c r="B75" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>50023</v>
       </c>
       <c r="B76" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>112424</v>
       </c>
       <c r="B77" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>95591</v>
       </c>
       <c r="B78" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>38739</v>
       </c>
@@ -8148,7 +8756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>40310</v>
       </c>
@@ -8156,7 +8764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>103221</v>
       </c>
@@ -8164,7 +8772,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>34693</v>
       </c>
@@ -8172,456 +8780,712 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1000</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+      <c r="C83" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1001</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1002</v>
       </c>
       <c r="B85" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+      <c r="C85" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1003</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+      <c r="C86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1004</v>
       </c>
       <c r="B87" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+      <c r="C87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1005</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+      <c r="C88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1007</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+      <c r="C89" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1008</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+      <c r="C90" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1009</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1010</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1011</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1012</v>
       </c>
       <c r="B94" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1013</v>
       </c>
       <c r="B95" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+      <c r="C95" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1014</v>
       </c>
       <c r="B96" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1015</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+        <v>276</v>
+      </c>
+      <c r="C97" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1016</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1017</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1018</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1019</v>
       </c>
       <c r="B101" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+      <c r="C101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1020</v>
       </c>
       <c r="B102" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+        <v>281</v>
+      </c>
+      <c r="C102" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1021</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1022</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+      <c r="C104" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1023</v>
       </c>
       <c r="B105" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+        <v>482</v>
+      </c>
+      <c r="C105" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1024</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+        <v>285</v>
+      </c>
+      <c r="C106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1025</v>
       </c>
       <c r="B107" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+      <c r="C107" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1026</v>
       </c>
       <c r="B108" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+      <c r="C108" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1027</v>
       </c>
       <c r="B109" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+      <c r="C109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1028</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+      <c r="C110" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1029</v>
       </c>
       <c r="B111" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+      <c r="C111" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1030</v>
       </c>
       <c r="B112" t="s">
+        <v>481</v>
+      </c>
+      <c r="C112" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>1032</v>
+      </c>
+      <c r="B113" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>1033</v>
+      </c>
+      <c r="B114" t="s">
+        <v>294</v>
+      </c>
+      <c r="C114" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>1034</v>
+      </c>
+      <c r="B115" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>1035</v>
+      </c>
+      <c r="B116" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>1036</v>
+      </c>
+      <c r="B117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C117" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>1038</v>
+      </c>
+      <c r="B118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>1039</v>
+      </c>
+      <c r="B119" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>1040</v>
+      </c>
+      <c r="B120" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <v>1031</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C120" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>1041</v>
+      </c>
+      <c r="B121" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>1032</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="C121" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>1042</v>
+      </c>
+      <c r="B122" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <v>1033</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="C122" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>1043</v>
+      </c>
+      <c r="B123" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>1034</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>1044</v>
+      </c>
+      <c r="B124" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>1035</v>
-      </c>
-      <c r="B117" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <v>1036</v>
-      </c>
-      <c r="B118" t="s">
+      <c r="C124" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>1046</v>
+      </c>
+      <c r="B125" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <v>1038</v>
-      </c>
-      <c r="B119" t="s">
+      <c r="C125" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>1047</v>
+      </c>
+      <c r="B126" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>1048</v>
+      </c>
+      <c r="B127" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>1039</v>
-      </c>
-      <c r="B120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>1040</v>
-      </c>
-      <c r="B121" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <v>1041</v>
-      </c>
-      <c r="B122" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>1042</v>
-      </c>
-      <c r="B123" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <v>1043</v>
-      </c>
-      <c r="B124" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125">
-        <v>1044</v>
-      </c>
-      <c r="B125" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126">
-        <v>1046</v>
-      </c>
-      <c r="B126" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127">
-        <v>1047</v>
-      </c>
-      <c r="B127" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C127" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B128" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B131" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132">
-        <v>1052</v>
-      </c>
-      <c r="B132" t="s">
+        <v>327</v>
+      </c>
+      <c r="C131" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132" s="4">
+        <v>130283</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>1053</v>
+      </c>
+      <c r="B133" t="s">
+        <v>340</v>
+      </c>
+      <c r="C133" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>1054</v>
+      </c>
+      <c r="B134" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" s="5">
-        <v>130283</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134">
-        <v>1053</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135">
-        <v>1054</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" s="7">
         <v>1055</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" s="7">
+      <c r="B135" t="s">
+        <v>344</v>
+      </c>
+      <c r="C135" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136">
         <v>1056</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" s="7">
+      <c r="B136" t="s">
+        <v>345</v>
+      </c>
+      <c r="C136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137">
         <v>1057</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B139" s="7"/>
+      <c r="B137" t="s">
+        <v>346</v>
+      </c>
+      <c r="C137" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D531D4-B561-4C62-9097-CA0FFA6FAC96}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="6">
+        <v>310234</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>301477</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>291299</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>312598</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>279357</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>266295</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>265064</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>306380</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="8">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
